--- a/방명록/방명록 테이블명세(2021-05-18).xlsx
+++ b/방명록/방명록 테이블명세(2021-05-18).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L21"/>
+  <dimension ref="B1:Q21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6:Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1577,8 +1577,8 @@
     <col min="16141" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="L2" s="28"/>
     </row>
-    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="14" t="s">
         <v>4</v>
       </c>
@@ -1624,7 +1624,7 @@
       <c r="K3" s="30"/>
       <c r="L3" s="31"/>
     </row>
-    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="16" t="s">
         <v>6</v>
       </c>
@@ -1639,7 +1639,7 @@
       <c r="K4" s="21"/>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="17" t="s">
         <v>7</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="2">
         <v>1</v>
       </c>
@@ -1700,8 +1700,14 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="5"/>
+      <c r="P6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="6">
         <v>2</v>
       </c>
@@ -1725,8 +1731,14 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="15"/>
+      <c r="P7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6">
         <v>3</v>
       </c>
@@ -1750,8 +1762,14 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="15"/>
+      <c r="P8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="6">
         <v>4</v>
       </c>
@@ -1775,8 +1793,14 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="15"/>
+      <c r="P9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="6">
         <v>5</v>
       </c>
@@ -1800,8 +1824,14 @@
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="15"/>
+      <c r="P10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="6">
         <v>6</v>
       </c>
@@ -1825,8 +1855,14 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="15"/>
+      <c r="P11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
         <v>7</v>
       </c>
@@ -1850,8 +1886,14 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="15"/>
+      <c r="P12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <v>8</v>
       </c>
@@ -1866,7 +1908,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6">
         <v>9</v>
       </c>
@@ -1881,7 +1923,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <v>10</v>
       </c>
@@ -1896,7 +1938,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6">
         <v>11</v>
       </c>
